--- a/TestData/Vendor/VendorData.xlsx
+++ b/TestData/Vendor/VendorData.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\Vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E572C4-40BB-4E5D-AB65-B20FB8ACCD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F396F-0A22-4999-A8E5-007FF8EBE1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addVendor" sheetId="1" r:id="rId1"/>
+    <sheet name="editVendor" sheetId="2" r:id="rId2"/>
+    <sheet name="deleteVendor" sheetId="3" r:id="rId3"/>
+    <sheet name="syncVendor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="113">
   <si>
     <t>username</t>
   </si>
@@ -78,12 +81,6 @@
     <t>E:\POM_for_Bottle\WebApp\TestData\Vendor\Sample Data From Bottle Testing\Vendor\vendor1.jpg</t>
   </si>
   <si>
-    <t>VD-01</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 1</t>
-  </si>
-  <si>
     <t>vendor1@mail.com</t>
   </si>
   <si>
@@ -100,6 +97,276 @@
   </si>
   <si>
     <t>test@mail.com</t>
+  </si>
+  <si>
+    <t>vendor_edit01@mail.com</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\Vendor\Sample Data From Bottle Testing\Vendor\vendor2.jpg</t>
+  </si>
+  <si>
+    <t>edit_vendor_name</t>
+  </si>
+  <si>
+    <t>edit_vendor_email</t>
+  </si>
+  <si>
+    <t>edit_vendor_phone</t>
+  </si>
+  <si>
+    <t>Auomator2</t>
+  </si>
+  <si>
+    <t>Tester 2</t>
+  </si>
+  <si>
+    <t>Auomator3</t>
+  </si>
+  <si>
+    <t>Tester 3</t>
+  </si>
+  <si>
+    <t>Auomator4</t>
+  </si>
+  <si>
+    <t>Tester 4</t>
+  </si>
+  <si>
+    <t>Auomator5</t>
+  </si>
+  <si>
+    <t>Tester 5</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\Vendor\Sample Data From Bottle Testing\Vendor\vendor3.jpg</t>
+  </si>
+  <si>
+    <t>ItmeName</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>transport_mode</t>
+  </si>
+  <si>
+    <t>Pay_mode</t>
+  </si>
+  <si>
+    <t>receiver_name</t>
+  </si>
+  <si>
+    <t>imgPath</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>By Truck</t>
+  </si>
+  <si>
+    <t>By Cheque</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\InventoryData\Image\Receipt.png</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>2023-05-21</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>By Cash</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>Auto_Vendor edited -01</t>
+  </si>
+  <si>
+    <t>Auto_Vendor edited -02</t>
+  </si>
+  <si>
+    <t>Auto_Vendor edited -03</t>
+  </si>
+  <si>
+    <t>Auto_Vendor edited -04</t>
+  </si>
+  <si>
+    <t>Auto_Vendor edited -05</t>
+  </si>
+  <si>
+    <t>Leather00-10</t>
+  </si>
+  <si>
+    <t>LT-09</t>
+  </si>
+  <si>
+    <t>(Automation) Item 55</t>
+  </si>
+  <si>
+    <t>AT-IT-55</t>
+  </si>
+  <si>
+    <t>(Automation) Item 56</t>
+  </si>
+  <si>
+    <t>AT-IT-56</t>
+  </si>
+  <si>
+    <t>(Automation) Item 57</t>
+  </si>
+  <si>
+    <t>AT-IT-57</t>
+  </si>
+  <si>
+    <t>(Automation) Item 58</t>
+  </si>
+  <si>
+    <t>AT-IT-58</t>
+  </si>
+  <si>
+    <t>AT-51</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 51</t>
+  </si>
+  <si>
+    <t>AT-52</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 52</t>
+  </si>
+  <si>
+    <t>AT-53</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 53</t>
+  </si>
+  <si>
+    <t>AT-54</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 54</t>
+  </si>
+  <si>
+    <t>AT-55</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 55</t>
+  </si>
+  <si>
+    <t>AT_EDT-56</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_56</t>
+  </si>
+  <si>
+    <t>AT_EDT-57</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_57</t>
+  </si>
+  <si>
+    <t>AT_EDT-58</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_58</t>
+  </si>
+  <si>
+    <t>AT_EDT-59</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_59</t>
+  </si>
+  <si>
+    <t>AT_EDT-60</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_60</t>
+  </si>
+  <si>
+    <t>AT_DEL_81</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_81</t>
+  </si>
+  <si>
+    <t>AT_DEL_82</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_82</t>
+  </si>
+  <si>
+    <t>AT_DEL_83</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_83</t>
+  </si>
+  <si>
+    <t>AT_DEL_84</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_84</t>
+  </si>
+  <si>
+    <t>AT_DEL_85</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_85</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-45</t>
+  </si>
+  <si>
+    <t>Del_Vendor 45</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-46</t>
+  </si>
+  <si>
+    <t>Del_Vendor 46</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-47</t>
+  </si>
+  <si>
+    <t>Del_Vendor 47</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-48</t>
+  </si>
+  <si>
+    <t>Del_Vendor 48</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-49</t>
+  </si>
+  <si>
+    <t>Del_Vendor 49</t>
   </si>
 </sst>
 </file>
@@ -150,9 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -434,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,37 +770,213 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>9800001010</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>9800002010</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>9800001011</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>9800002011</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>9800001012</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>9800002012</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>9800001013</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>9800002013</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>9800001014</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>9800002014</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -541,8 +985,1169 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A70CF062-94AA-401F-A6DD-3E89101BCE44}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{0B5801E1-F1F6-426F-8983-86A65D698927}"/>
     <hyperlink ref="N2" r:id="rId3" xr:uid="{A94FB988-19DE-4051-BFCF-9D32FBA502DA}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{BFEE5CB4-067C-4372-820F-D831E8687B73}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{CE4F8E54-B505-4E0A-84BD-D08C943B474E}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{27C8CF5B-538A-4475-BD2C-12B5DC39B15B}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{2DFD1209-D80B-4E53-A783-7FB5CD79A79E}"/>
+    <hyperlink ref="N3" r:id="rId8" xr:uid="{7AE73D47-8039-49FD-8ED0-35A2554983CB}"/>
+    <hyperlink ref="N4" r:id="rId9" xr:uid="{DA174733-90C1-49A8-A03A-B8A4FC9191E2}"/>
+    <hyperlink ref="N5" r:id="rId10" xr:uid="{F3FF5BB1-D522-470E-BC65-79BDF8B92120}"/>
+    <hyperlink ref="N6" r:id="rId11" xr:uid="{ADF7DFD2-6499-4321-B935-32FB80A9A864}"/>
+    <hyperlink ref="A3" r:id="rId12" xr:uid="{DE3EC58A-A076-48CC-BE5D-B66B25BC08B0}"/>
+    <hyperlink ref="A4" r:id="rId13" xr:uid="{5830110D-7607-442B-B8F7-5286C074ACC1}"/>
+    <hyperlink ref="A5" r:id="rId14" xr:uid="{DCDC6F44-F4FA-4B2D-B331-FDEFCAFA4391}"/>
+    <hyperlink ref="A6" r:id="rId15" xr:uid="{209FC93D-4BAC-43E0-ADF1-6C15C572EA0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DC0173-9E19-4793-9FD5-B2D76918AF12}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>9800001010</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>9800002010</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>9800000200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>9800001011</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>9800002011</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>9800000201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>9800001012</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>9800002012</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>9800000202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>9800001013</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>9800002013</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5">
+        <v>9800000203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>9800001014</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>9800002014</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6">
+        <v>9800000204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{23F74A8D-E348-4090-9EC9-A15DB8D07621}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{389950C2-0EE5-4C13-B84B-6DDE205DC777}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{5A3A1B91-957C-44F6-9536-DBAF55FCC856}"/>
+    <hyperlink ref="N2" r:id="rId4" xr:uid="{E1ED018A-527B-48B2-8DB7-AF1074D2A61B}"/>
+    <hyperlink ref="P3" r:id="rId5" xr:uid="{43BC24C4-D11D-4234-A547-7841E11B6BC8}"/>
+    <hyperlink ref="P4" r:id="rId6" xr:uid="{61DDB2E1-1188-4020-8F81-B329985C2E9F}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{7CC7F305-4853-4E40-A5EB-715F1BD69880}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{91AE452A-8AA5-47F7-AE2B-DA2078F142B3}"/>
+    <hyperlink ref="N3" r:id="rId9" xr:uid="{EC0CFDB0-C1B0-4FAF-A6B8-0F4906C8974D}"/>
+    <hyperlink ref="N4" r:id="rId10" xr:uid="{699BCC7A-9C2E-42D3-A2F3-616DF0DCECF7}"/>
+    <hyperlink ref="A3" r:id="rId11" xr:uid="{58377F22-D417-42CE-B639-E796114DBA2A}"/>
+    <hyperlink ref="A4" r:id="rId12" xr:uid="{1727E0BF-D70C-46E2-8B1E-DEE5980BA31F}"/>
+    <hyperlink ref="P5" r:id="rId13" xr:uid="{66D502E0-3DA1-4CE7-8C8D-56ADEE239A0C}"/>
+    <hyperlink ref="F5" r:id="rId14" xr:uid="{191A5C62-50CA-4F65-92C7-FA7CDD376470}"/>
+    <hyperlink ref="N5" r:id="rId15" xr:uid="{68F17D38-9398-40E1-98E5-18CFD5E7307D}"/>
+    <hyperlink ref="P6" r:id="rId16" xr:uid="{8D935913-E157-488F-AC29-C7C5518369EF}"/>
+    <hyperlink ref="F6" r:id="rId17" xr:uid="{B274C2AE-E9C4-4909-95C9-03B3209A56D2}"/>
+    <hyperlink ref="N6" r:id="rId18" xr:uid="{6EF8FF8E-556C-4A89-B10F-E1D414CDBB42}"/>
+    <hyperlink ref="A5" r:id="rId19" xr:uid="{EF59E8AB-3A45-464C-A8C8-DC157E7BF91E}"/>
+    <hyperlink ref="A6" r:id="rId20" xr:uid="{920246F9-F93A-4A48-8CCB-58139D03B251}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09A0903-84B0-4465-8D88-1D32877B8805}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>9800001010</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>9800002010</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>9800001011</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>9800002011</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>9800001012</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>9800002012</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>9800001013</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>9800002013</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>9800001014</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>9800002014</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{9BA967D0-A04E-444C-9B4E-B584C088F6A4}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{3596BD8E-883D-4EC5-86CD-C63AFE4415D4}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{6B7095A3-F413-4A6A-9A45-5788D20A1D17}"/>
+    <hyperlink ref="N3" r:id="rId4" xr:uid="{54DE74CD-0B73-4986-9BD7-13D410890B75}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{5B326BD2-6396-4DFE-90F3-58E30B605E2A}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{9F48DEAE-C545-4900-BE0F-F6AB7E0E413E}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{13A4675A-0945-4EC0-8114-ED195E3D7384}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{8EB03DE2-9051-4DC1-8CDD-76D77C645194}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{27739F62-0C11-4455-919F-06A84561ADF4}"/>
+    <hyperlink ref="A5" r:id="rId10" xr:uid="{186597F3-2FC1-4228-ADBB-29E8477C2849}"/>
+    <hyperlink ref="A4" r:id="rId11" xr:uid="{33F63B8D-0B48-45D3-B519-301A95556C9F}"/>
+    <hyperlink ref="A3" r:id="rId12" xr:uid="{BB47AA28-4BF9-4281-BDD5-BCD0BCBFC06F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020E3E12-5528-47DA-9598-D26BBC81E50E}">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>9800001010</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>9800002010</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2">
+        <v>2000</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>9800001011</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>9800002011</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3">
+        <v>2001</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>9800001012</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>9800002012</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4">
+        <v>2002</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>9800001013</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>9800002013</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5">
+        <v>2003</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5">
+        <v>13</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>9800001014</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>9800002014</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6">
+        <v>2004</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{2B305A1B-A73D-405E-856F-F8641F0AB396}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{7B3F9D0D-9F0D-4614-8AF8-618470F1BA64}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{ACC09F8D-CA8E-48C8-9D3B-54759FA55B5A}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{25C81365-883C-446F-AC3C-EB82C7C58317}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{5658C1EC-92CE-4D56-9CB1-FC2BA1EBEAFD}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{484D2FEC-6488-41F8-BD13-DB030909CA9A}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{9F185C2D-813E-4C73-987D-52AF5A487DB4}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{3810E169-5A3D-4B05-94D2-CFAD206DABC6}"/>
+    <hyperlink ref="N3" r:id="rId9" xr:uid="{D77C943D-2A69-452D-A691-1B79F7FA1F70}"/>
+    <hyperlink ref="N4" r:id="rId10" xr:uid="{2429DFEE-ED1E-4333-8EA5-08DC9D440E0E}"/>
+    <hyperlink ref="N5" r:id="rId11" xr:uid="{372711A6-1A79-4735-B00A-5E4FD0397A17}"/>
+    <hyperlink ref="N6" r:id="rId12" xr:uid="{824C134B-7184-4534-996D-6CA01A4023BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/TestData/Vendor/VendorData.xlsx
+++ b/TestData/Vendor/VendorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\Vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F396F-0A22-4999-A8E5-007FF8EBE1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075EEBDA-8699-462B-9DEC-EFD1C6DD03CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addVendor" sheetId="1" r:id="rId1"/>
@@ -249,124 +249,124 @@
     <t>AT-IT-58</t>
   </si>
   <si>
-    <t>AT-51</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 51</t>
-  </si>
-  <si>
-    <t>AT-52</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 52</t>
-  </si>
-  <si>
-    <t>AT-53</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 53</t>
-  </si>
-  <si>
-    <t>AT-54</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 54</t>
-  </si>
-  <si>
-    <t>AT-55</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 55</t>
-  </si>
-  <si>
-    <t>AT_EDT-56</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_56</t>
-  </si>
-  <si>
-    <t>AT_EDT-57</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_57</t>
-  </si>
-  <si>
-    <t>AT_EDT-58</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_58</t>
-  </si>
-  <si>
-    <t>AT_EDT-59</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_59</t>
-  </si>
-  <si>
-    <t>AT_EDT-60</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_60</t>
-  </si>
-  <si>
-    <t>AT_DEL_81</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_81</t>
-  </si>
-  <si>
-    <t>AT_DEL_82</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_82</t>
-  </si>
-  <si>
-    <t>AT_DEL_83</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_83</t>
-  </si>
-  <si>
-    <t>AT_DEL_84</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_84</t>
-  </si>
-  <si>
-    <t>AT_DEL_85</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_85</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-45</t>
-  </si>
-  <si>
-    <t>Del_Vendor 45</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-46</t>
-  </si>
-  <si>
-    <t>Del_Vendor 46</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-47</t>
-  </si>
-  <si>
-    <t>Del_Vendor 47</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-48</t>
-  </si>
-  <si>
-    <t>Del_Vendor 48</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-49</t>
-  </si>
-  <si>
-    <t>Del_Vendor 49</t>
+    <t>AT-56</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 56</t>
+  </si>
+  <si>
+    <t>AT-57</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 57</t>
+  </si>
+  <si>
+    <t>AT-58</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 58</t>
+  </si>
+  <si>
+    <t>AT-59</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 59</t>
+  </si>
+  <si>
+    <t>AT-60</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 60</t>
+  </si>
+  <si>
+    <t>AT_EDT-61</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_61</t>
+  </si>
+  <si>
+    <t>AT_EDT-62</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_62</t>
+  </si>
+  <si>
+    <t>AT_EDT-63</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_63</t>
+  </si>
+  <si>
+    <t>AT_EDT-64</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_64</t>
+  </si>
+  <si>
+    <t>AT_EDT-65</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_65</t>
+  </si>
+  <si>
+    <t>AT_DEL_86</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_86</t>
+  </si>
+  <si>
+    <t>AT_DEL_87</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_87</t>
+  </si>
+  <si>
+    <t>AT_DEL_88</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_88</t>
+  </si>
+  <si>
+    <t>AT_DEL_89</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_89</t>
+  </si>
+  <si>
+    <t>AT_DEL_90</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_90</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-50</t>
+  </si>
+  <si>
+    <t>Del_Vendor 50</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-51</t>
+  </si>
+  <si>
+    <t>Del_Vendor 51</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-52</t>
+  </si>
+  <si>
+    <t>Del_Vendor 52</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-53</t>
+  </si>
+  <si>
+    <t>Del_Vendor 53</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-54</t>
+  </si>
+  <si>
+    <t>Del_Vendor 54</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
@@ -1348,20 +1348,20 @@
     <hyperlink ref="N2" r:id="rId4" xr:uid="{E1ED018A-527B-48B2-8DB7-AF1074D2A61B}"/>
     <hyperlink ref="P3" r:id="rId5" xr:uid="{43BC24C4-D11D-4234-A547-7841E11B6BC8}"/>
     <hyperlink ref="P4" r:id="rId6" xr:uid="{61DDB2E1-1188-4020-8F81-B329985C2E9F}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{7CC7F305-4853-4E40-A5EB-715F1BD69880}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{91AE452A-8AA5-47F7-AE2B-DA2078F142B3}"/>
-    <hyperlink ref="N3" r:id="rId9" xr:uid="{EC0CFDB0-C1B0-4FAF-A6B8-0F4906C8974D}"/>
-    <hyperlink ref="N4" r:id="rId10" xr:uid="{699BCC7A-9C2E-42D3-A2F3-616DF0DCECF7}"/>
-    <hyperlink ref="A3" r:id="rId11" xr:uid="{58377F22-D417-42CE-B639-E796114DBA2A}"/>
-    <hyperlink ref="A4" r:id="rId12" xr:uid="{1727E0BF-D70C-46E2-8B1E-DEE5980BA31F}"/>
-    <hyperlink ref="P5" r:id="rId13" xr:uid="{66D502E0-3DA1-4CE7-8C8D-56ADEE239A0C}"/>
-    <hyperlink ref="F5" r:id="rId14" xr:uid="{191A5C62-50CA-4F65-92C7-FA7CDD376470}"/>
-    <hyperlink ref="N5" r:id="rId15" xr:uid="{68F17D38-9398-40E1-98E5-18CFD5E7307D}"/>
-    <hyperlink ref="P6" r:id="rId16" xr:uid="{8D935913-E157-488F-AC29-C7C5518369EF}"/>
+    <hyperlink ref="N3" r:id="rId7" xr:uid="{EC0CFDB0-C1B0-4FAF-A6B8-0F4906C8974D}"/>
+    <hyperlink ref="N4" r:id="rId8" xr:uid="{699BCC7A-9C2E-42D3-A2F3-616DF0DCECF7}"/>
+    <hyperlink ref="A3" r:id="rId9" xr:uid="{58377F22-D417-42CE-B639-E796114DBA2A}"/>
+    <hyperlink ref="A4" r:id="rId10" xr:uid="{1727E0BF-D70C-46E2-8B1E-DEE5980BA31F}"/>
+    <hyperlink ref="P5" r:id="rId11" xr:uid="{66D502E0-3DA1-4CE7-8C8D-56ADEE239A0C}"/>
+    <hyperlink ref="N5" r:id="rId12" xr:uid="{68F17D38-9398-40E1-98E5-18CFD5E7307D}"/>
+    <hyperlink ref="P6" r:id="rId13" xr:uid="{8D935913-E157-488F-AC29-C7C5518369EF}"/>
+    <hyperlink ref="N6" r:id="rId14" xr:uid="{6EF8FF8E-556C-4A89-B10F-E1D414CDBB42}"/>
+    <hyperlink ref="A5" r:id="rId15" xr:uid="{EF59E8AB-3A45-464C-A8C8-DC157E7BF91E}"/>
+    <hyperlink ref="A6" r:id="rId16" xr:uid="{920246F9-F93A-4A48-8CCB-58139D03B251}"/>
     <hyperlink ref="F6" r:id="rId17" xr:uid="{B274C2AE-E9C4-4909-95C9-03B3209A56D2}"/>
-    <hyperlink ref="N6" r:id="rId18" xr:uid="{6EF8FF8E-556C-4A89-B10F-E1D414CDBB42}"/>
-    <hyperlink ref="A5" r:id="rId19" xr:uid="{EF59E8AB-3A45-464C-A8C8-DC157E7BF91E}"/>
-    <hyperlink ref="A6" r:id="rId20" xr:uid="{920246F9-F93A-4A48-8CCB-58139D03B251}"/>
+    <hyperlink ref="F5" r:id="rId18" xr:uid="{191A5C62-50CA-4F65-92C7-FA7CDD376470}"/>
+    <hyperlink ref="F4" r:id="rId19" xr:uid="{91AE452A-8AA5-47F7-AE2B-DA2078F142B3}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{7CC7F305-4853-4E40-A5EB-715F1BD69880}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020E3E12-5528-47DA-9598-D26BBC81E50E}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Vendor/VendorData.xlsx
+++ b/TestData/Vendor/VendorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\Vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075EEBDA-8699-462B-9DEC-EFD1C6DD03CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11F177-2FFD-4487-9EB5-9BC718BE6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addVendor" sheetId="1" r:id="rId1"/>
@@ -219,154 +219,154 @@
     <t>Auto_Vendor edited -05</t>
   </si>
   <si>
-    <t>Leather00-10</t>
-  </si>
-  <si>
-    <t>LT-09</t>
-  </si>
-  <si>
-    <t>(Automation) Item 55</t>
-  </si>
-  <si>
-    <t>AT-IT-55</t>
-  </si>
-  <si>
-    <t>(Automation) Item 56</t>
-  </si>
-  <si>
-    <t>AT-IT-56</t>
-  </si>
-  <si>
-    <t>(Automation) Item 57</t>
-  </si>
-  <si>
-    <t>AT-IT-57</t>
-  </si>
-  <si>
-    <t>(Automation) Item 58</t>
-  </si>
-  <si>
-    <t>AT-IT-58</t>
-  </si>
-  <si>
-    <t>AT-56</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 56</t>
-  </si>
-  <si>
-    <t>AT-57</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 57</t>
-  </si>
-  <si>
-    <t>AT-58</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 58</t>
-  </si>
-  <si>
-    <t>AT-59</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 59</t>
-  </si>
-  <si>
-    <t>AT-60</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 60</t>
-  </si>
-  <si>
-    <t>AT_EDT-61</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_61</t>
-  </si>
-  <si>
-    <t>AT_EDT-62</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_62</t>
-  </si>
-  <si>
-    <t>AT_EDT-63</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_63</t>
-  </si>
-  <si>
-    <t>AT_EDT-64</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_64</t>
-  </si>
-  <si>
-    <t>AT_EDT-65</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_65</t>
-  </si>
-  <si>
-    <t>AT_DEL_86</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_86</t>
-  </si>
-  <si>
-    <t>AT_DEL_87</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_87</t>
-  </si>
-  <si>
-    <t>AT_DEL_88</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_88</t>
-  </si>
-  <si>
-    <t>AT_DEL_89</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_89</t>
-  </si>
-  <si>
-    <t>AT_DEL_90</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_90</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-50</t>
-  </si>
-  <si>
-    <t>Del_Vendor 50</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-51</t>
-  </si>
-  <si>
-    <t>Del_Vendor 51</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-52</t>
-  </si>
-  <si>
-    <t>Del_Vendor 52</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-53</t>
-  </si>
-  <si>
-    <t>Del_Vendor 53</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-54</t>
-  </si>
-  <si>
-    <t>Del_Vendor 54</t>
+    <t>Leather00-16</t>
+  </si>
+  <si>
+    <t>LT-016</t>
+  </si>
+  <si>
+    <t>(Automation) Item 80</t>
+  </si>
+  <si>
+    <t>AT-IT-80</t>
+  </si>
+  <si>
+    <t>(Automation) Item 81</t>
+  </si>
+  <si>
+    <t>AT-IT-81</t>
+  </si>
+  <si>
+    <t>(Automation) Item 82</t>
+  </si>
+  <si>
+    <t>AT-IT-82</t>
+  </si>
+  <si>
+    <t>(Automation) Item 83</t>
+  </si>
+  <si>
+    <t>AT-IT-83</t>
+  </si>
+  <si>
+    <t>AT-66</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 66</t>
+  </si>
+  <si>
+    <t>AT-67</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 67</t>
+  </si>
+  <si>
+    <t>AT-68</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 68</t>
+  </si>
+  <si>
+    <t>AT-69</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 69</t>
+  </si>
+  <si>
+    <t>AT-70</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 70</t>
+  </si>
+  <si>
+    <t>AT_EDT-71</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_71</t>
+  </si>
+  <si>
+    <t>AT_EDT-72</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_72</t>
+  </si>
+  <si>
+    <t>AT_EDT-73</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_73</t>
+  </si>
+  <si>
+    <t>AT_EDT-74</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_74</t>
+  </si>
+  <si>
+    <t>AT_EDT-75</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_75</t>
+  </si>
+  <si>
+    <t>AT_DEL_96</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_96</t>
+  </si>
+  <si>
+    <t>AT_DEL_97</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_97</t>
+  </si>
+  <si>
+    <t>AT_DEL_98</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_98</t>
+  </si>
+  <si>
+    <t>AT_DEL_99</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_99</t>
+  </si>
+  <si>
+    <t>AT_DEL_100</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_100</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-60</t>
+  </si>
+  <si>
+    <t>Del_Vendor 60</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-61</t>
+  </si>
+  <si>
+    <t>Del_Vendor 61</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-62</t>
+  </si>
+  <si>
+    <t>Del_Vendor 62</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-63</t>
+  </si>
+  <si>
+    <t>Del_Vendor 63</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-64</t>
+  </si>
+  <si>
+    <t>Del_Vendor 64</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020E3E12-5528-47DA-9598-D26BBC81E50E}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/Vendor/VendorData.xlsx
+++ b/TestData/Vendor/VendorData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\Vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11F177-2FFD-4487-9EB5-9BC718BE6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F23D4-7B65-42FF-ABB7-D39F735B24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,124 +249,124 @@
     <t>AT-IT-83</t>
   </si>
   <si>
-    <t>AT-66</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 66</t>
-  </si>
-  <si>
-    <t>AT-67</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 67</t>
-  </si>
-  <si>
-    <t>AT-68</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 68</t>
-  </si>
-  <si>
-    <t>AT-69</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 69</t>
-  </si>
-  <si>
-    <t>AT-70</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 70</t>
-  </si>
-  <si>
-    <t>AT_EDT-71</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_71</t>
-  </si>
-  <si>
-    <t>AT_EDT-72</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_72</t>
-  </si>
-  <si>
-    <t>AT_EDT-73</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_73</t>
-  </si>
-  <si>
-    <t>AT_EDT-74</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_74</t>
-  </si>
-  <si>
-    <t>AT_EDT-75</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_75</t>
-  </si>
-  <si>
-    <t>AT_DEL_96</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_96</t>
-  </si>
-  <si>
-    <t>AT_DEL_97</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_97</t>
-  </si>
-  <si>
-    <t>AT_DEL_98</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_98</t>
-  </si>
-  <si>
-    <t>AT_DEL_99</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_99</t>
-  </si>
-  <si>
-    <t>AT_DEL_100</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_100</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-60</t>
-  </si>
-  <si>
-    <t>Del_Vendor 60</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-61</t>
-  </si>
-  <si>
-    <t>Del_Vendor 61</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-62</t>
-  </si>
-  <si>
-    <t>Del_Vendor 62</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-63</t>
-  </si>
-  <si>
-    <t>Del_Vendor 63</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-64</t>
-  </si>
-  <si>
-    <t>Del_Vendor 64</t>
+    <t>AT-86</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 86</t>
+  </si>
+  <si>
+    <t>AT-87</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 87</t>
+  </si>
+  <si>
+    <t>AT-88</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 88</t>
+  </si>
+  <si>
+    <t>AT-89</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 89</t>
+  </si>
+  <si>
+    <t>AT-90</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 90</t>
+  </si>
+  <si>
+    <t>AT_EDT-91</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_91</t>
+  </si>
+  <si>
+    <t>AT_EDT-92</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_92</t>
+  </si>
+  <si>
+    <t>AT_EDT-93</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_93</t>
+  </si>
+  <si>
+    <t>AT_EDT-94</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_94</t>
+  </si>
+  <si>
+    <t>AT_EDT-95</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_95</t>
+  </si>
+  <si>
+    <t>AT_DEL_116</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_116</t>
+  </si>
+  <si>
+    <t>AT_DEL_117</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_117</t>
+  </si>
+  <si>
+    <t>AT_DEL_118</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_118</t>
+  </si>
+  <si>
+    <t>AT_DEL_119</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_119</t>
+  </si>
+  <si>
+    <t>AT_DEL_120</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_120</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-80</t>
+  </si>
+  <si>
+    <t>Del_Vendor 80</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-81</t>
+  </si>
+  <si>
+    <t>Del_Vendor 81</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-82</t>
+  </si>
+  <si>
+    <t>Del_Vendor 82</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-83</t>
+  </si>
+  <si>
+    <t>Del_Vendor 83</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-84</t>
+  </si>
+  <si>
+    <t>Del_Vendor 84</t>
   </si>
 </sst>
 </file>
@@ -710,6 +710,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="13.21875" customWidth="1"/>
@@ -1380,7 +1381,7 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -1681,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020E3E12-5528-47DA-9598-D26BBC81E50E}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/Vendor/VendorData.xlsx
+++ b/TestData/Vendor/VendorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\Vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F23D4-7B65-42FF-ABB7-D39F735B24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B556A2-F378-455B-AF7B-3B884B5E0B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addVendor" sheetId="1" r:id="rId1"/>
@@ -249,124 +249,124 @@
     <t>AT-IT-83</t>
   </si>
   <si>
-    <t>AT-86</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 86</t>
-  </si>
-  <si>
-    <t>AT-87</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 87</t>
-  </si>
-  <si>
-    <t>AT-88</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 88</t>
-  </si>
-  <si>
-    <t>AT-89</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 89</t>
-  </si>
-  <si>
-    <t>AT-90</t>
-  </si>
-  <si>
-    <t>Auto_Vendor 90</t>
-  </si>
-  <si>
-    <t>AT_EDT-91</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_91</t>
-  </si>
-  <si>
-    <t>AT_EDT-92</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_92</t>
-  </si>
-  <si>
-    <t>AT_EDT-93</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_93</t>
-  </si>
-  <si>
-    <t>AT_EDT-94</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_94</t>
-  </si>
-  <si>
-    <t>AT_EDT-95</t>
-  </si>
-  <si>
-    <t>Auto_Vendor_edit_95</t>
-  </si>
-  <si>
-    <t>AT_DEL_116</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_116</t>
-  </si>
-  <si>
-    <t>AT_DEL_117</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_117</t>
-  </si>
-  <si>
-    <t>AT_DEL_118</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_118</t>
-  </si>
-  <si>
-    <t>AT_DEL_119</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_119</t>
-  </si>
-  <si>
-    <t>AT_DEL_120</t>
-  </si>
-  <si>
-    <t>Delete_Vendor_120</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-80</t>
-  </si>
-  <si>
-    <t>Del_Vendor 80</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-81</t>
-  </si>
-  <si>
-    <t>Del_Vendor 81</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-82</t>
-  </si>
-  <si>
-    <t>Del_Vendor 82</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-83</t>
-  </si>
-  <si>
-    <t>Del_Vendor 83</t>
-  </si>
-  <si>
-    <t>TE-VE-IN-84</t>
-  </si>
-  <si>
-    <t>Del_Vendor 84</t>
+    <t>TE-VE-IN-105</t>
+  </si>
+  <si>
+    <t>Del_Vendor 105</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-106</t>
+  </si>
+  <si>
+    <t>Del_Vendor 106</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-107</t>
+  </si>
+  <si>
+    <t>Del_Vendor 107</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-108</t>
+  </si>
+  <si>
+    <t>Del_Vendor 108</t>
+  </si>
+  <si>
+    <t>TE-VE-IN-109</t>
+  </si>
+  <si>
+    <t>Del_Vendor 109</t>
+  </si>
+  <si>
+    <t>AT-111</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 111</t>
+  </si>
+  <si>
+    <t>AT-112</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 112</t>
+  </si>
+  <si>
+    <t>AT-113</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 113</t>
+  </si>
+  <si>
+    <t>AT-114</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 114</t>
+  </si>
+  <si>
+    <t>AT-115</t>
+  </si>
+  <si>
+    <t>Auto_Vendor 115</t>
+  </si>
+  <si>
+    <t>AT_DEL_145</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_145</t>
+  </si>
+  <si>
+    <t>AT_DEL_146</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_146</t>
+  </si>
+  <si>
+    <t>AT_DEL_147</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_147</t>
+  </si>
+  <si>
+    <t>AT_DEL_148</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_148</t>
+  </si>
+  <si>
+    <t>AT_DEL_149</t>
+  </si>
+  <si>
+    <t>Delete_Vendor_149</t>
+  </si>
+  <si>
+    <t>AT_EDT-121</t>
+  </si>
+  <si>
+    <t>AT_EDT-122</t>
+  </si>
+  <si>
+    <t>AT_EDT-123</t>
+  </si>
+  <si>
+    <t>AT_EDT-124</t>
+  </si>
+  <si>
+    <t>AT_EDT-125</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_121</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_122</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_123</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_124</t>
+  </si>
+  <si>
+    <t>Auto_Vendor_edit_125</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -815,10 +815,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -859,10 +859,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -903,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -947,10 +947,10 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DC0173-9E19-4793-9FD5-B2D76918AF12}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,10 +1086,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -1139,10 +1139,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -1192,10 +1192,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -1245,10 +1245,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1298,10 +1298,10 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -1343,26 +1343,26 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{23F74A8D-E348-4090-9EC9-A15DB8D07621}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{389950C2-0EE5-4C13-B84B-6DDE205DC777}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{5A3A1B91-957C-44F6-9536-DBAF55FCC856}"/>
-    <hyperlink ref="N2" r:id="rId4" xr:uid="{E1ED018A-527B-48B2-8DB7-AF1074D2A61B}"/>
-    <hyperlink ref="P3" r:id="rId5" xr:uid="{43BC24C4-D11D-4234-A547-7841E11B6BC8}"/>
-    <hyperlink ref="P4" r:id="rId6" xr:uid="{61DDB2E1-1188-4020-8F81-B329985C2E9F}"/>
-    <hyperlink ref="N3" r:id="rId7" xr:uid="{EC0CFDB0-C1B0-4FAF-A6B8-0F4906C8974D}"/>
-    <hyperlink ref="N4" r:id="rId8" xr:uid="{699BCC7A-9C2E-42D3-A2F3-616DF0DCECF7}"/>
-    <hyperlink ref="A3" r:id="rId9" xr:uid="{58377F22-D417-42CE-B639-E796114DBA2A}"/>
-    <hyperlink ref="A4" r:id="rId10" xr:uid="{1727E0BF-D70C-46E2-8B1E-DEE5980BA31F}"/>
-    <hyperlink ref="P5" r:id="rId11" xr:uid="{66D502E0-3DA1-4CE7-8C8D-56ADEE239A0C}"/>
-    <hyperlink ref="N5" r:id="rId12" xr:uid="{68F17D38-9398-40E1-98E5-18CFD5E7307D}"/>
-    <hyperlink ref="P6" r:id="rId13" xr:uid="{8D935913-E157-488F-AC29-C7C5518369EF}"/>
-    <hyperlink ref="N6" r:id="rId14" xr:uid="{6EF8FF8E-556C-4A89-B10F-E1D414CDBB42}"/>
-    <hyperlink ref="A5" r:id="rId15" xr:uid="{EF59E8AB-3A45-464C-A8C8-DC157E7BF91E}"/>
-    <hyperlink ref="A6" r:id="rId16" xr:uid="{920246F9-F93A-4A48-8CCB-58139D03B251}"/>
-    <hyperlink ref="F6" r:id="rId17" xr:uid="{B274C2AE-E9C4-4909-95C9-03B3209A56D2}"/>
-    <hyperlink ref="F5" r:id="rId18" xr:uid="{191A5C62-50CA-4F65-92C7-FA7CDD376470}"/>
-    <hyperlink ref="F4" r:id="rId19" xr:uid="{91AE452A-8AA5-47F7-AE2B-DA2078F142B3}"/>
-    <hyperlink ref="F3" r:id="rId20" xr:uid="{7CC7F305-4853-4E40-A5EB-715F1BD69880}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{61DDB2E1-1188-4020-8F81-B329985C2E9F}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{699BCC7A-9C2E-42D3-A2F3-616DF0DCECF7}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{1727E0BF-D70C-46E2-8B1E-DEE5980BA31F}"/>
+    <hyperlink ref="P5" r:id="rId4" xr:uid="{66D502E0-3DA1-4CE7-8C8D-56ADEE239A0C}"/>
+    <hyperlink ref="N5" r:id="rId5" xr:uid="{68F17D38-9398-40E1-98E5-18CFD5E7307D}"/>
+    <hyperlink ref="P6" r:id="rId6" xr:uid="{8D935913-E157-488F-AC29-C7C5518369EF}"/>
+    <hyperlink ref="N6" r:id="rId7" xr:uid="{6EF8FF8E-556C-4A89-B10F-E1D414CDBB42}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{EF59E8AB-3A45-464C-A8C8-DC157E7BF91E}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{920246F9-F93A-4A48-8CCB-58139D03B251}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{B274C2AE-E9C4-4909-95C9-03B3209A56D2}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{191A5C62-50CA-4F65-92C7-FA7CDD376470}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{91AE452A-8AA5-47F7-AE2B-DA2078F142B3}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{7CC7F305-4853-4E40-A5EB-715F1BD69880}"/>
+    <hyperlink ref="A3" r:id="rId14" xr:uid="{58377F22-D417-42CE-B639-E796114DBA2A}"/>
+    <hyperlink ref="N3" r:id="rId15" xr:uid="{EC0CFDB0-C1B0-4FAF-A6B8-0F4906C8974D}"/>
+    <hyperlink ref="P3" r:id="rId16" xr:uid="{43BC24C4-D11D-4234-A547-7841E11B6BC8}"/>
+    <hyperlink ref="N2" r:id="rId17" xr:uid="{E1ED018A-527B-48B2-8DB7-AF1074D2A61B}"/>
+    <hyperlink ref="F2" r:id="rId18" xr:uid="{5A3A1B91-957C-44F6-9536-DBAF55FCC856}"/>
+    <hyperlink ref="P2" r:id="rId19" xr:uid="{389950C2-0EE5-4C13-B84B-6DDE205DC777}"/>
+    <hyperlink ref="A2" r:id="rId20" xr:uid="{23F74A8D-E348-4090-9EC9-A15DB8D07621}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020E3E12-5528-47DA-9598-D26BBC81E50E}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,10 +1773,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -1847,10 +1847,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -1921,10 +1921,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -1995,10 +1995,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -2069,10 +2069,10 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
